--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chandana\eclipse-workspace\Capstone_project_opendemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B6FA0A-8B49-4BF9-9C70-B3502D2C77B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC68BBE-E7FF-4B9E-955B-39B24A8EEB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207F8D39-CD64-4862-B7B4-634A8AAE14D3}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>Pass@123</t>
   </si>
   <si>
-    <t>johngfgf@test.com</t>
-  </si>
-  <si>
-    <t>alicedfgh@test.com</t>
+    <t>jogfgf@test.com</t>
+  </si>
+  <si>
+    <t>alcedfgh@test.com</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
